--- a/HARDWARE/Power_Calculation_Node.xlsx
+++ b/HARDWARE/Power_Calculation_Node.xlsx
@@ -1,43 +1,294 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HUST_GraduateProject\HARDWARE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E679B55-798C-4D0C-B5DE-A3E6AF2192CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+  <si>
+    <t>STM32</t>
+  </si>
+  <si>
+    <t>LoRa</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>MAX3485</t>
+  </si>
+  <si>
+    <t>Voltage (V)</t>
+  </si>
+  <si>
+    <t>Power (mW)</t>
+  </si>
+  <si>
+    <t>Duration (s)</t>
+  </si>
+  <si>
+    <t>Max Current (mA)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>0.5s</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>180s</t>
+  </si>
+  <si>
+    <t>Avr. Power (mW)</t>
+  </si>
+  <si>
+    <t>Avr. Power of Node (mW)</t>
+  </si>
+  <si>
+    <t>Runtime (days)</t>
+  </si>
+  <si>
+    <t>Battery Capacity (mAh)</t>
+  </si>
+  <si>
+    <t>Avr. Battery Voltage (V)</t>
+  </si>
+  <si>
+    <t>Runtime (hrs)</t>
+  </si>
+  <si>
+    <t>1 Cell</t>
+  </si>
+  <si>
+    <t>2 Cell</t>
+  </si>
+  <si>
+    <t>Battery
+Maximum Voltage (V)</t>
+  </si>
+  <si>
+    <t>Battery
+Minimum Voltage (V)</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>STM32 Activity</t>
+  </si>
+  <si>
+    <t>LoRa Activity</t>
+  </si>
+  <si>
+    <t>MAX3485 Activity</t>
+  </si>
+  <si>
+    <t>Sensors Activity</t>
+  </si>
+  <si>
+    <t>Other Activity</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Avr. Power Comsumtion (mW)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -45,15 +296,445 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Tiền tệ" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +747,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Đường kết nối Mũi tên Thẳng 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375C121E-4662-2D66-4605-0285BE39A058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="771525"/>
+          <a:ext cx="7705725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1069,766 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="12.625" style="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="P4" s="37">
+        <f>O4 *2</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="M6" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="37">
+        <v>3.6</v>
+      </c>
+      <c r="P6" s="37">
+        <f t="shared" ref="P6" si="0">O6 *2</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="37">
+        <f xml:space="preserve"> (O4 + O6) / 2</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="P8" s="37">
+        <f t="shared" ref="P8" si="1">O8 *2</f>
+        <v>7.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="30"/>
+      <c r="M12" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f xml:space="preserve"> O8 * 2</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>80</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>7</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="3">
+        <f>E14*E15</f>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="F16" s="61">
+        <f t="shared" ref="F16:J16" si="2">F14*F15</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>95.699999999999989</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>39.599999999999994</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <f>K14*K15</f>
+        <v>7.26</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" ref="L16:O16" si="3">L14*L15</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="3"/>
+        <v>624</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="3"/>
+        <v>54.6</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="3">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3">
+        <v>180</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J17" s="3">
+        <v>181</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>186</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
+        <v>186</v>
+      </c>
+      <c r="O17" s="3">
+        <v>11</v>
+      </c>
+      <c r="P17" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51">
+        <f xml:space="preserve"> (E16*E17 + F16*F17)/(E17+F17)</f>
+        <v>0.94369633507853412</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="51">
+        <f xml:space="preserve"> (G16*G17 + I16*I17 + J16*J17 + H16*H17)/(G17+H17+I17+J17)</f>
+        <v>0.40947643979057591</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="51">
+        <f t="shared" ref="K18" si="4" xml:space="preserve"> (K16*K17 + L16*L17)/(K17+L17)</f>
+        <v>0.19005235602094239</v>
+      </c>
+      <c r="L18" s="52"/>
+      <c r="M18" s="51">
+        <f t="shared" ref="M18" si="5" xml:space="preserve"> (M16*M17 + N16*N17)/(M17+N17)</f>
+        <v>16.335078534031414</v>
+      </c>
+      <c r="N18" s="52"/>
+      <c r="O18" s="51">
+        <f t="shared" ref="O18" si="6" xml:space="preserve"> (O16*O17 + P16*P17)/(O17+P17)</f>
+        <v>3.1445026178010473</v>
+      </c>
+      <c r="P18" s="52"/>
+    </row>
+    <row r="19" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="54">
+        <f>SUM(E18:P18)</f>
+        <v>21.022806282722517</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="56"/>
+    </row>
+    <row r="20" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="59"/>
+    </row>
+    <row r="24" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="68">
+        <f xml:space="preserve"> E19</f>
+        <v>21.022806282722517</v>
+      </c>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
+    </row>
+    <row r="25" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+    </row>
+    <row r="26" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="62">
+        <v>2500</v>
+      </c>
+      <c r="H26" s="62"/>
+      <c r="I26" s="22">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22">
+        <v>4000</v>
+      </c>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="22">
+        <f xml:space="preserve"> O8 * 2</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="63">
+        <f xml:space="preserve"> O8 * 2</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="33">
+        <f xml:space="preserve"> O8 * 2</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="33">
+        <f xml:space="preserve"> O8 * 2</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="60">
+        <f xml:space="preserve"> E26 / (E19 / E28)</f>
+        <v>742.05126519292435</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="67">
+        <f xml:space="preserve"> G26 / (E19 / G28)</f>
+        <v>927.56408149115543</v>
+      </c>
+      <c r="H30" s="67"/>
+      <c r="I30" s="60">
+        <f xml:space="preserve"> I26 / (E19 / I28)</f>
+        <v>1113.0768977893865</v>
+      </c>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60">
+        <f xml:space="preserve"> K26 / (E19 / K28)</f>
+        <v>1484.1025303858487</v>
+      </c>
+      <c r="L30" s="60"/>
+    </row>
+    <row r="31" spans="3:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="60">
+        <f>E30 / 24</f>
+        <v>30.918802716371847</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="67">
+        <f t="shared" ref="G31" si="7">G30 / 24</f>
+        <v>38.648503395464807</v>
+      </c>
+      <c r="H31" s="67"/>
+      <c r="I31" s="60">
+        <f t="shared" ref="I31" si="8">I30 / 24</f>
+        <v>46.378204074557772</v>
+      </c>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60">
+        <f t="shared" ref="K31" si="9">K30 / 24</f>
+        <v>61.837605432743693</v>
+      </c>
+      <c r="L31" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:L25"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:P20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="G12:J12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>